--- a/interface_autotest/target/test-classes/TestCase.xlsx
+++ b/interface_autotest/target/test-classes/TestCase.xlsx
@@ -4,18 +4,78 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010"/>
+    <workbookView windowWidth="19815" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Attendance_APP" sheetId="1" r:id="rId1"/>
-    <sheet name="常用命令" sheetId="2" r:id="rId2"/>
+    <sheet name="Bicycling" sheetId="1" r:id="rId1"/>
+    <sheet name="Driving" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+结尾:
+以  “__&gt;” 结束为一个等价类,且跳过该行执行下一行用例</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+C33全排列C30+C31+C32+C33=8种
+除去C30和C33每一种可以调换3次位置即3X6=18
+再在18种里面过滤如果：
+1.阻断之后就是2+10=12种执行结果全覆盖
+2.不足段就是c30+c33+18=20种执行结果全覆盖
+最终思路，因为不填的字段已经退出占用的位置，相当于已经有位移这个覆盖，所有只设计8种即可</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
   <si>
     <t>模块(module)</t>
   </si>
@@ -50,28 +110,199 @@
     <t>骑行路线规划API</t>
   </si>
   <si>
+    <t>autoit001_</t>
+  </si>
+  <si>
+    <t>验证请求必填项：${desc}，respone返回正确</t>
+  </si>
+  <si>
+    <t>autoit001_01</t>
+  </si>
+  <si>
+    <t>key不填、origin不填、destination不填</t>
+  </si>
+  <si>
+    <t>${url}/v5/direction/bicycling?destination=116.397477,39.908692</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>"status":"1","info":"OK","infocode":"10000"</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>autoit001_02</t>
+  </si>
+  <si>
+    <t>key必填、origin不填、destination不填</t>
+  </si>
+  <si>
+    <t>${url}/v5/direction/bicycling?key=8030fe79bb330c8a627ddd1e513526a2</t>
+  </si>
+  <si>
+    <t>autoit001_03</t>
+  </si>
+  <si>
+    <t>key不填、origin必填、destination不填</t>
+  </si>
+  <si>
+    <t>${url}/v5/direction/bicycling?origin=116.269775,39.842980</t>
+  </si>
+  <si>
+    <t>autoit001_04</t>
+  </si>
+  <si>
+    <t>key不填、origin不填、destination必填</t>
+  </si>
+  <si>
+    <t>autoit001_05</t>
+  </si>
+  <si>
+    <t>key必填、origin必填、destination不填</t>
+  </si>
+  <si>
+    <t>${url}/v5/direction/bicycling?key=8030fe79bb330c8a627ddd1e513526a2&amp;origin=116.269775,39.842980</t>
+  </si>
+  <si>
+    <t>autoit001_06</t>
+  </si>
+  <si>
+    <t>key必填、origin不填、destination必填</t>
+  </si>
+  <si>
+    <t>${url}/v5/direction/bicycling?key=8030fe79bb330c8a627ddd1e513526a2&amp;destination=116.397477,39.908692</t>
+  </si>
+  <si>
+    <t>autoit001_07</t>
+  </si>
+  <si>
+    <t>key不填、origin必填、destination必填</t>
+  </si>
+  <si>
+    <t>${url}/v5/direction/bicycling?origin=116.269775,39.842980&amp;destination=116.397477,39.908692</t>
+  </si>
+  <si>
+    <t>autoit001_08</t>
+  </si>
+  <si>
+    <t>key必填、origin必填、destination必填</t>
+  </si>
+  <si>
+    <t>${url}/v5/direction/bicycling?key=8030fe79bb330c8a627ddd1e513526a2&amp;origin=116.269775,39.842980&amp;destination=116.397477,39.908692</t>
+  </si>
+  <si>
+    <t>autoit002_</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>autoit002_01_</t>
+  </si>
+  <si>
+    <t>不匹配格式</t>
+  </si>
+  <si>
+    <t>${url}/v5/direction/bicycling?key= &amp;origin=116.269775,39.842980&amp;destination=116.397477,39.908692</t>
+  </si>
+  <si>
+    <t>autoit002_01_01</t>
+  </si>
+  <si>
+    <t>有参无值,key=</t>
+  </si>
+  <si>
+    <t>${url}/v5/direction/bicycling?key=&amp;origin=116.269775,39.842980&amp;destination=116.397477,39.908692</t>
+  </si>
+  <si>
+    <t>autoit002_01_02</t>
+  </si>
+  <si>
+    <t>key=!@#!@#asd</t>
+  </si>
+  <si>
+    <t>${url}/v5/direction/bicycling?key=!@#!@#asd&amp;origin=116.269775,39.842980&amp;destination=116.397477,39.908692</t>
+  </si>
+  <si>
+    <t>autoit003_</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>autoit003_01</t>
+  </si>
+  <si>
+    <t>纬 经度</t>
+  </si>
+  <si>
+    <t>${url}/v5/direction/bicycling?key=8030fe79bb330c8a627ddd1e513526a2&amp;origin=39.842980,116.269775&amp;destination=39.908692,116.397477</t>
+  </si>
+  <si>
+    <t>autoit003_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“，”逗号验证，其他：分号、句号、感叹号、@ </t>
+  </si>
+  <si>
+    <t>${url}/v5/direction/bicycling?key=8030fe79bb330c8a627ddd1e513526a2&amp;origin=116.269775;39.842980&amp;destination=116.397477@39.908692</t>
+  </si>
+  <si>
+    <t>autoit003_03</t>
+  </si>
+  <si>
+    <t>经纬度小数点超过6位数字</t>
+  </si>
+  <si>
+    <t>${url}/v5/direction/bicycling?key=8030fe79bb330c8a627ddd1e513526a2&amp;origin=116.26977500000,39.842980&amp;destination=116.397477,39.908692</t>
+  </si>
+  <si>
+    <t>autoit003_04</t>
+  </si>
+  <si>
+    <t>${url}/v5/direction/bicycling?key=8030fe79bb330c8a627ddd1e513526a2&amp;origin=&amp;destination=</t>
+  </si>
+  <si>
+    <t>autoit004</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>autoit005</t>
+  </si>
+  <si>
+    <t>show_fields</t>
+  </si>
+  <si>
+    <t>autoit006</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>autoit007</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>callback</t>
+  </si>
+  <si>
     <t>autoit001</t>
   </si>
   <si>
-    <t>检查模拟请求字段key必填、origin必填、destination必填返回响应结果集</t>
-  </si>
-  <si>
-    <t>${url}/v5/direction/bicycling?key=8030fe79bb330c8a627ddd1e513526a2&amp;origin=116.269775,39.842980&amp;destination=116.397477,39.908692</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>"status":"1","info":"OK","infocode":"10000"</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>接口关联用例</t>
   </si>
   <si>
     <t>autoit002</t>
   </si>
   <si>
-    <t>检查模拟请求字段show_fields必填返回响应结果集</t>
+    <t>检查</t>
   </si>
 </sst>
 </file>
@@ -80,11 +311,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -107,7 +338,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,7 +352,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,9 +378,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,16 +417,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -172,15 +441,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,53 +479,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -248,11 +486,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -270,79 +512,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,103 +686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,30 +721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -514,6 +732,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,21 +770,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -581,152 +823,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +983,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1061,22 +1306,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F4" sqref="F$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44" style="2" customWidth="1"/>
+    <col min="4" max="4" width="120.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20" style="2" customWidth="1"/>
+    <col min="6" max="7" width="3" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34" style="2" customWidth="1"/>
     <col min="9" max="9" width="27" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
@@ -1114,7 +1358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="99" spans="1:10">
+    <row r="2" s="2" customFormat="1" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1124,46 +1368,873 @@
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:10">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:10">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:10">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:10">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:10">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:10">
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:10">
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:10">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:10">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:10">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:10">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:10">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:10">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:10">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:10">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:10">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:10">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:10">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.708244776162576" right="0.708244776162576" top="0.747823152016467" bottom="0.747823152016467" header="0.315238382872634" footer="0.315238382872634"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G&amp;R&amp;"宋体,常规"&amp;11④内部公开 请勿外传</oddHeader>
+    <oddFooter>&amp;C&amp;"宋体,常规"&amp;11第 &amp;"宋体,常规"&amp;11&amp;P&amp;"宋体,常规"&amp;11 页，共 &amp;"宋体,常规"&amp;11&amp;N&amp;"宋体,常规"&amp;11 页</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
+  <picture r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="119" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="37.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" ht="99" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1344,20 +2415,4 @@
   <legacyDrawingHF r:id="rId1"/>
   <picture r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>